--- a/(Example3) P51800032087/P51800032087.xlsx
+++ b/(Example3) P51800032087/P51800032087.xlsx
@@ -5,24 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e291e7b128c337ee/Projects/Python/RERA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e291e7b128c337ee/Projects/Python/RERA/(Example3) P51800032087/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{811E061E-DFED-44CA-B663-04FDCCB303B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9216A0DB-FC73-40AB-8114-B2394C25A202}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{811E061E-DFED-44CA-B663-04FDCCB303B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69F199DF-E0E5-48B8-9DC1-F818678340AB}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="-12840" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{F02A93C1-9E3F-45D2-8EAF-FD402E95B003}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F02A93C1-9E3F-45D2-8EAF-FD402E95B003}"/>
   </bookViews>
   <sheets>
-    <sheet name="List of Sheets" sheetId="7" r:id="rId1"/>
-    <sheet name="P51800032087" sheetId="6" r:id="rId2"/>
-    <sheet name="Organization" sheetId="1" r:id="rId3"/>
-    <sheet name="Project" sheetId="2" r:id="rId4"/>
-    <sheet name="Co-Promoters" sheetId="3" r:id="rId5"/>
-    <sheet name="Project Details" sheetId="4" r:id="rId6"/>
-    <sheet name="Uploaded Documents" sheetId="5" r:id="rId7"/>
+    <sheet name="P51800032087" sheetId="6" r:id="rId1"/>
+    <sheet name="Organization" sheetId="1" r:id="rId2"/>
+    <sheet name="Project" sheetId="2" r:id="rId3"/>
+    <sheet name="Co-Promoters" sheetId="3" r:id="rId4"/>
+    <sheet name="Project Details" sheetId="4" r:id="rId5"/>
+    <sheet name="Uploaded Documents" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Uploaded Documents'!$A$4:$C$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Uploaded Documents'!$A$4:$C$77</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="267">
   <si>
     <t>www.neelamrealtors.com</t>
   </si>
@@ -845,9 +844,6 @@
   </si>
   <si>
     <t>MahaRERA Project / Agent Registration Number</t>
-  </si>
-  <si>
-    <t>Co-Promoters</t>
   </si>
 </sst>
 </file>
@@ -1319,55 +1315,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A27907D7-0E8F-43B1-9D84-5CA63C65BA68}">
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59A94FC-8911-482E-91AA-7EA1F6B684CC}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1496,7 +1449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADFFEB2-168D-4FBD-90D1-24430EAD8F1D}">
   <dimension ref="B2:N50"/>
   <sheetViews>
@@ -1887,7 +1840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88551FEF-101B-4BCE-B88E-D41390DDEF62}">
   <dimension ref="B2:B69"/>
   <sheetViews>
@@ -2218,7 +2171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C473142E-2B30-43D3-9504-280E1EC58AB2}">
   <dimension ref="B2:G19"/>
   <sheetViews>
@@ -2426,7 +2379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA427C8A-8581-4191-91CB-B84A8129E97E}">
   <dimension ref="B2:L63"/>
   <sheetViews>
@@ -3215,7 +3168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C472AA-9B84-4143-AE97-55F84129FDF9}">
   <dimension ref="B2:C77"/>
   <sheetViews>
